--- a/2017年09月第4周技术中心周简报-芶凌.xlsx
+++ b/2017年09月第4周技术中心周简报-芶凌.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\.PhpStorm2017.1\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\.PhpStorm2017.2\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,68 +519,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -893,7 +896,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -945,116 +948,111 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="59"/>
+      <c r="A2" s="64"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="31">
-        <f ca="1">NOW()</f>
-        <v>43005.496384606478</v>
-      </c>
-      <c r="J2" s="66" t="s">
+      <c r="I2" s="70">
+        <v>43008</v>
+      </c>
+      <c r="J2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="69" t="s">
+      <c r="A3" s="64"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="31">
-        <f ca="1">NOW()</f>
-        <v>43005.496384606478</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="56"/>
+      <c r="I3" s="70">
+        <v>43008</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="64"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="31">
-        <f ca="1">NOW()</f>
-        <v>43005.496384606478</v>
-      </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70">
+        <v>43008</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="64"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="31">
-        <f ca="1">NOW()</f>
-        <v>43005.496384606478</v>
-      </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="70">
+        <v>43008</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="64"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="31">
-        <f ca="1">NOW()</f>
-        <v>43005.496384606478</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="70">
+        <v>43008</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="60"/>
-      <c r="G7" s="65"/>
+      <c r="A7" s="64"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="55"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="17"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="56"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="43"/>
@@ -1062,24 +1060,24 @@
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="67"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A9" s="49"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="19"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="68"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1102,7 +1100,7 @@
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A11" s="49"/>
+      <c r="A11" s="64"/>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
       <c r="E11" s="21"/>
@@ -1111,7 +1109,7 @@
       <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A12" s="49"/>
+      <c r="A12" s="64"/>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
       <c r="E12" s="23"/>
@@ -1123,7 +1121,7 @@
       <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="66"/>
       <c r="C13" s="7"/>
       <c r="D13" s="10"/>
       <c r="E13" s="26"/>
@@ -1135,7 +1133,7 @@
       <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1158,28 +1156,28 @@
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A15" s="49"/>
+      <c r="A15" s="64"/>
       <c r="C15" s="5"/>
       <c r="D15" s="11"/>
       <c r="E15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="57"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A16" s="49"/>
+      <c r="A16" s="64"/>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
       <c r="E16" s="27"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="64"/>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
       <c r="E17" s="18"/>
@@ -1187,8 +1185,8 @@
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="58"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" ht="42.75" customHeight="1">
@@ -1208,6 +1206,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="D2:D7"/>
@@ -1215,11 +1218,6 @@
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="J2:J9"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
